--- a/data/nitrate_data/r-star Nitrate data sep exp 161006.xlsx
+++ b/data/nitrate_data/r-star Nitrate data sep exp 161006.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27430"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21680" windowHeight="11800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21675" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="55">
   <si>
     <t>sample_name</t>
   </si>
@@ -192,26 +187,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,19 +213,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,17 +524,17 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -605,7 +580,7 @@
         <v>42627</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">(DAY(E2)) -9</f>
+        <f>DATEDIF("2016/9/9", E2, "d")</f>
         <v>5</v>
       </c>
       <c r="G2">
@@ -616,7 +591,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -633,7 +608,7 @@
         <v>42627</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F66" si="0">DATEDIF("2016/9/9", E3, "d")</f>
         <v>5</v>
       </c>
       <c r="G3">
@@ -644,7 +619,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -672,7 +647,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -700,7 +675,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -728,7 +703,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -756,7 +731,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -784,7 +759,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -812,7 +787,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -840,7 +815,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -868,7 +843,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -896,7 +871,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -924,7 +899,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -952,7 +927,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -980,7 +955,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1008,7 +983,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1011,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1039,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1067,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1120,7 +1095,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1123,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1176,7 +1151,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1204,7 +1179,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1207,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1260,7 +1235,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1263,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1316,7 +1291,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1344,7 +1319,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1361,7 +1336,7 @@
         <v>42627</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>DATEDIF("2016/9/9", E29, "d")</f>
         <v>5</v>
       </c>
       <c r="G29">
@@ -1372,7 +1347,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1400,7 +1375,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +1403,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1431,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1484,7 +1459,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1476,7 @@
         <v>42627</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F65" si="2">(DAY(E34)) -9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G34">
@@ -1512,7 +1487,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1529,21 +1504,21 @@
         <v>42627</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G35">
         <v>18</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H59" si="3">G35/1000</f>
+        <f t="shared" ref="H35:H59" si="2">G35/1000</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1560,21 +1535,21 @@
         <v>42627</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G36">
         <v>70</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1591,21 +1566,21 @@
         <v>42627</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G37">
         <v>105</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.105</v>
       </c>
       <c r="I37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1622,18 +1597,18 @@
         <v>42635</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G38">
         <v>6</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1650,18 +1625,18 @@
         <v>42635</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f>DATEDIF("2016/9/9", E39, "d")</f>
         <v>13</v>
       </c>
       <c r="G39">
         <v>6</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1678,18 +1653,18 @@
         <v>42635</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G40">
         <v>6</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1706,18 +1681,18 @@
         <v>42635</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G41">
         <v>8</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1734,18 +1709,18 @@
         <v>42635</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1762,18 +1737,18 @@
         <v>42635</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1790,18 +1765,18 @@
         <v>42635</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1818,18 +1793,18 @@
         <v>42635</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G45">
         <v>13</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1846,18 +1821,18 @@
         <v>42635</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G46">
         <v>13</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1874,18 +1849,18 @@
         <v>42635</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G47">
         <v>12</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1902,18 +1877,18 @@
         <v>42635</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G48">
         <v>12</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1930,18 +1905,18 @@
         <v>42635</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1958,18 +1933,18 @@
         <v>42635</v>
       </c>
       <c r="F50">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1986,18 +1961,18 @@
         <v>42635</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -2014,18 +1989,18 @@
         <v>42635</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2033,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2042,18 +2017,18 @@
         <v>42635</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G53">
         <v>13</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -2061,7 +2036,7 @@
         <v>26</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2070,18 +2045,18 @@
         <v>42635</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f>DATEDIF("2016/9/9", E54, "d")</f>
         <v>13</v>
       </c>
       <c r="G54">
         <v>19</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2064,7 @@
         <v>24</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2098,18 +2073,18 @@
         <v>42635</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G55">
         <v>19</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2117,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -2126,18 +2101,18 @@
         <v>42635</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G56">
         <v>17</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -2154,18 +2129,18 @@
         <v>42635</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G57">
         <v>21</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2173,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2182,18 +2157,18 @@
         <v>42635</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G58">
         <v>18</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -2201,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -2210,18 +2185,18 @@
         <v>42635</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G59">
         <v>12</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2229,7 +2204,7 @@
         <v>26</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -2238,18 +2213,18 @@
         <v>42635</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G60">
         <v>22</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:H145" si="4">G60/1000</f>
+        <f t="shared" ref="H60:H166" si="3">G60/1000</f>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2257,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -2266,18 +2241,18 @@
         <v>42635</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G61">
         <v>24</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -2294,18 +2269,18 @@
         <v>42635</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G62">
         <v>19</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2288,7 @@
         <v>26</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -2322,18 +2297,18 @@
         <v>42635</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G63">
         <v>35</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2341,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -2350,18 +2325,18 @@
         <v>42635</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G64">
         <v>21</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -2369,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="C65">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -2378,18 +2353,18 @@
         <v>42635</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G65">
         <v>25</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -2397,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="C66">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -2406,18 +2381,18 @@
         <v>42635</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="5">(DAY(E66)) -9</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G66">
         <v>13</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -2425,7 +2400,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -2434,18 +2409,18 @@
         <v>42635</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F67:F69" si="4">DATEDIF("2016/9/9", E67, "d")</f>
         <v>13</v>
       </c>
       <c r="G67">
         <v>25</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2462,7 +2437,7 @@
         <v>42635</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G68">
@@ -2473,7 +2448,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2465,7 @@
         <v>42635</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="G69">
@@ -2501,7 +2476,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -2518,18 +2493,18 @@
         <v>42635</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f>DATEDIF("2016/9/9", E70, "d")</f>
         <v>13</v>
       </c>
       <c r="G70">
         <v>168</v>
       </c>
       <c r="H70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2546,21 +2521,21 @@
         <v>42635</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F71:F82" si="5">DATEDIF("2016/9/9", E71, "d")</f>
         <v>13</v>
       </c>
       <c r="G71">
         <v>15</v>
       </c>
       <c r="H71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -2584,14 +2559,14 @@
         <v>64</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="I72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -2615,14 +2590,14 @@
         <v>119</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.11899999999999999</v>
       </c>
       <c r="I73">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2646,11 +2621,11 @@
         <v>6</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2674,11 +2649,11 @@
         <v>9</v>
       </c>
       <c r="H75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2702,11 +2677,11 @@
         <v>9</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2730,11 +2705,11 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2758,11 +2733,11 @@
         <v>13</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2786,11 +2761,11 @@
         <v>12</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -2814,11 +2789,11 @@
         <v>6</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2842,11 +2817,11 @@
         <v>12</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -2870,11 +2845,11 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2891,18 +2866,18 @@
         <v>42642</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f>DATEDIF("2016/9/9", E83, "d")</f>
         <v>20</v>
       </c>
       <c r="G83">
         <v>11</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2919,18 +2894,18 @@
         <v>42642</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F84:F148" si="6">DATEDIF("2016/9/9", E84, "d")</f>
         <v>20</v>
       </c>
       <c r="G84">
         <v>12</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -2947,18 +2922,18 @@
         <v>42642</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G85">
         <v>2</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2975,18 +2950,18 @@
         <v>42642</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G86">
         <v>4</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -3003,18 +2978,18 @@
         <v>42642</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G87">
         <v>12</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -3031,18 +3006,18 @@
         <v>42642</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G88">
         <v>10</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -3059,18 +3034,18 @@
         <v>42642</v>
       </c>
       <c r="F89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G89">
         <v>13</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -3087,18 +3062,18 @@
         <v>42642</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G90">
         <v>13</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -3115,18 +3090,18 @@
         <v>42642</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G91">
         <v>30</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>35</v>
       </c>
@@ -3143,18 +3118,18 @@
         <v>42642</v>
       </c>
       <c r="F92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G92">
         <v>41</v>
       </c>
       <c r="H92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>34</v>
       </c>
@@ -3171,18 +3146,18 @@
         <v>42642</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G93">
         <v>6</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -3199,18 +3174,18 @@
         <v>42642</v>
       </c>
       <c r="F94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G94">
         <v>27</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -3227,18 +3202,18 @@
         <v>42642</v>
       </c>
       <c r="F95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G95">
         <v>5</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>37</v>
       </c>
@@ -3255,18 +3230,18 @@
         <v>42642</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G96">
         <v>10</v>
       </c>
       <c r="H96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -3283,18 +3258,18 @@
         <v>42642</v>
       </c>
       <c r="F97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G97">
         <v>30</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -3311,18 +3286,18 @@
         <v>42642</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F129" si="6">(DAY(E98)) -9</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G98">
         <v>30</v>
       </c>
       <c r="H98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -3346,11 +3321,11 @@
         <v>17</v>
       </c>
       <c r="H99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>39</v>
       </c>
@@ -3374,11 +3349,11 @@
         <v>28</v>
       </c>
       <c r="H100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>44</v>
       </c>
@@ -3402,11 +3377,11 @@
         <v>22</v>
       </c>
       <c r="H101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -3430,11 +3405,11 @@
         <v>13</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>42</v>
       </c>
@@ -3458,11 +3433,11 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -3486,11 +3461,11 @@
         <v>169</v>
       </c>
       <c r="H104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>46</v>
       </c>
@@ -3514,11 +3489,11 @@
         <v>200</v>
       </c>
       <c r="H105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -3542,11 +3517,11 @@
         <v>2</v>
       </c>
       <c r="H106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>53</v>
       </c>
@@ -3570,14 +3545,14 @@
         <v>9</v>
       </c>
       <c r="H107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I107">
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>49</v>
       </c>
@@ -3601,14 +3576,14 @@
         <v>54</v>
       </c>
       <c r="H108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>50</v>
       </c>
@@ -3632,14 +3607,14 @@
         <v>188</v>
       </c>
       <c r="H109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.188</v>
       </c>
       <c r="I109">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3656,18 +3631,18 @@
         <v>42647</v>
       </c>
       <c r="F110">
-        <f>(DAY(E110)) + 30 - 9</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G110">
         <v>5</v>
       </c>
       <c r="H110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3684,18 +3659,18 @@
         <v>42647</v>
       </c>
       <c r="F111">
-        <f t="shared" ref="F111:F145" si="7">(DAY(E111)) + 30 - 9</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G111">
         <v>4</v>
       </c>
       <c r="H111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -3712,18 +3687,18 @@
         <v>42647</v>
       </c>
       <c r="F112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G112">
         <v>6</v>
       </c>
       <c r="H112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3740,18 +3715,18 @@
         <v>42647</v>
       </c>
       <c r="F113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G113">
         <v>10</v>
       </c>
       <c r="H113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -3768,18 +3743,18 @@
         <v>42647</v>
       </c>
       <c r="F114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G114">
         <v>9</v>
       </c>
       <c r="H114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3796,18 +3771,18 @@
         <v>42647</v>
       </c>
       <c r="F115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G115">
         <v>22</v>
       </c>
       <c r="H115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -3824,18 +3799,18 @@
         <v>42647</v>
       </c>
       <c r="F116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G116">
         <v>70</v>
       </c>
       <c r="H116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -3852,18 +3827,18 @@
         <v>42647</v>
       </c>
       <c r="F117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G117">
         <v>6</v>
       </c>
       <c r="H117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -3880,18 +3855,18 @@
         <v>42647</v>
       </c>
       <c r="F118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G118">
         <v>6</v>
       </c>
       <c r="H118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3908,18 +3883,18 @@
         <v>42647</v>
       </c>
       <c r="F119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G119">
         <v>4</v>
       </c>
       <c r="H119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3936,18 +3911,18 @@
         <v>42647</v>
       </c>
       <c r="F120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G120">
         <v>9</v>
       </c>
       <c r="H120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -3964,18 +3939,18 @@
         <v>42647</v>
       </c>
       <c r="F121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G121">
         <v>11</v>
       </c>
       <c r="H121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -3992,18 +3967,18 @@
         <v>42647</v>
       </c>
       <c r="F122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G122">
         <v>9</v>
       </c>
       <c r="H122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -4020,18 +3995,18 @@
         <v>42647</v>
       </c>
       <c r="F123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G123">
         <v>49</v>
       </c>
       <c r="H123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -4048,18 +4023,18 @@
         <v>42647</v>
       </c>
       <c r="F124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G124">
         <v>8</v>
       </c>
       <c r="H124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -4076,18 +4051,18 @@
         <v>42647</v>
       </c>
       <c r="F125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G125">
         <v>22</v>
       </c>
       <c r="H125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -4104,18 +4079,18 @@
         <v>42647</v>
       </c>
       <c r="F126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G126">
         <v>7</v>
       </c>
       <c r="H126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>31</v>
       </c>
@@ -4132,18 +4107,18 @@
         <v>42647</v>
       </c>
       <c r="F127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G127">
         <v>7</v>
       </c>
       <c r="H127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -4160,18 +4135,18 @@
         <v>42647</v>
       </c>
       <c r="F128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G128">
         <v>31</v>
       </c>
       <c r="H128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>34</v>
       </c>
@@ -4188,18 +4163,18 @@
         <v>42647</v>
       </c>
       <c r="F129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G129">
         <v>9</v>
       </c>
       <c r="H129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -4216,18 +4191,18 @@
         <v>42647</v>
       </c>
       <c r="F130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G130">
         <v>20</v>
       </c>
       <c r="H130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -4244,18 +4219,18 @@
         <v>42647</v>
       </c>
       <c r="F131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G131">
         <v>11</v>
       </c>
       <c r="H131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>37</v>
       </c>
@@ -4272,18 +4247,18 @@
         <v>42647</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G132">
         <v>18</v>
       </c>
       <c r="H132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -4300,18 +4275,18 @@
         <v>42647</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G133">
         <v>14</v>
       </c>
       <c r="H133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -4328,18 +4303,18 @@
         <v>42647</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G134">
         <v>8</v>
       </c>
       <c r="H134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -4356,18 +4331,18 @@
         <v>42647</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G135">
         <v>6</v>
       </c>
       <c r="H135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>39</v>
       </c>
@@ -4384,18 +4359,18 @@
         <v>42647</v>
       </c>
       <c r="F136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G136">
         <v>9</v>
       </c>
       <c r="H136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -4412,18 +4387,18 @@
         <v>42647</v>
       </c>
       <c r="F137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G137">
         <v>21</v>
       </c>
       <c r="H137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>43</v>
       </c>
@@ -4440,18 +4415,18 @@
         <v>42647</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G138">
         <v>18</v>
       </c>
       <c r="H138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>42</v>
       </c>
@@ -4468,18 +4443,18 @@
         <v>42647</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G139">
         <v>12</v>
       </c>
       <c r="H139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>28</v>
       </c>
@@ -4496,18 +4471,18 @@
         <v>42647</v>
       </c>
       <c r="F140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G140">
         <v>123</v>
       </c>
       <c r="H140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.123</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>46</v>
       </c>
@@ -4524,18 +4499,18 @@
         <v>42647</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G141">
         <v>119</v>
       </c>
       <c r="H141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>47</v>
       </c>
@@ -4552,18 +4527,18 @@
         <v>42647</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G142">
         <v>164</v>
       </c>
       <c r="H142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>53</v>
       </c>
@@ -4580,18 +4555,18 @@
         <v>42647</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G143">
         <v>5</v>
       </c>
       <c r="H143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>49</v>
       </c>
@@ -4608,18 +4583,18 @@
         <v>42647</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G144">
         <v>8</v>
       </c>
       <c r="H144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -4636,28 +4611,722 @@
         <v>42647</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G145">
         <v>29</v>
       </c>
       <c r="H145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="1048576" spans="5:5">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="G146">
+        <v>30</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="G147">
+        <v>14</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="3"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="G148">
+        <v>26</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ref="F149:F169" si="7">DATEDIF("2016/9/9", E149, "d")</f>
+        <v>34</v>
+      </c>
+      <c r="G149">
+        <v>48</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G150">
+        <v>29</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G151">
+        <v>65</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G152">
+        <v>34</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G153">
+        <v>23</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G154">
+        <v>21</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="3"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G155">
+        <v>28</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G156">
+        <v>23</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157">
+        <v>30</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G157">
+        <v>19</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158">
+        <v>30</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G158">
+        <v>140</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159">
+        <v>30</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G159">
+        <v>17</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>38</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G160">
+        <v>26</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="3"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G161">
+        <v>16</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G162">
+        <v>23</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>30</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>19</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="3"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164">
+        <v>30</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G164">
+        <v>14</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="3"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165">
+        <v>30</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G165">
+        <v>17</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>29</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G166">
+        <v>157</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="3"/>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>47</v>
+      </c>
+      <c r="B167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F167">
+        <f>DATEDIF("2016/9/9", E167, "d")</f>
+        <v>34</v>
+      </c>
+      <c r="G167">
+        <v>159</v>
+      </c>
+      <c r="H167">
+        <f t="shared" ref="H167:H170" si="8">G167/1000</f>
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F168">
+        <f>DATEDIF("2016/9/9", E168, "d")</f>
+        <v>34</v>
+      </c>
+      <c r="G168">
+        <v>14</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="8"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>54</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F169">
+        <f>DATEDIF("2016/9/9", E169, "d")</f>
+        <v>34</v>
+      </c>
+      <c r="G169">
+        <v>14</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="8"/>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" t="s">
+        <v>30</v>
+      </c>
+      <c r="E170" s="1">
+        <v>42656</v>
+      </c>
+      <c r="F170">
+        <f>DATEDIF("2016/9/9", E170, "d")</f>
+        <v>34</v>
+      </c>
+      <c r="G170">
+        <v>59</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="8"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048576" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4667,14 +5336,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4684,13 +5348,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>